--- a/data/trans_orig/IP16A07-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16A07-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E78B8318-52DA-489D-9833-241A0B0E08CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{044BCE0B-555C-410E-9D56-C5B4D084199C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{A0661317-ACE5-46E8-8CA5-3462FCEA9E03}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D69C9DA9-7FA7-4EA5-8222-1D16DCD4299C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -107,6 +107,27 @@
     <t>1,31%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -128,27 +149,6 @@
     <t>1,3%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
     <t>99,11%</t>
   </si>
   <si>
@@ -188,6 +188,36 @@
     <t>1,07%</t>
   </si>
   <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
     <t>96,46%</t>
   </si>
   <si>
@@ -206,36 +236,6 @@
     <t>1,67%</t>
   </si>
   <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
     <t>99,14%</t>
   </si>
   <si>
@@ -287,6 +287,24 @@
     <t>1,41%</t>
   </si>
   <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
     <t>96,7%</t>
   </si>
   <si>
@@ -305,24 +323,6 @@
     <t>1,74%</t>
   </si>
   <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
     <t>99,01%</t>
   </si>
   <si>
@@ -356,6 +356,42 @@
     <t>1,55%</t>
   </si>
   <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
     <t>98,23%</t>
   </si>
   <si>
@@ -372,42 +408,6 @@
   </si>
   <si>
     <t>0,95%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
   </si>
   <si>
     <t>99,24%</t>
@@ -835,7 +835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02708AF9-DC00-4B93-BC68-EACFAF09E002}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75CB7AD-C79B-4738-965C-7457ABCEF08E}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1108,10 +1108,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D7" s="7">
-        <v>55055</v>
+        <v>42390</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
@@ -1123,10 +1123,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I7" s="7">
-        <v>44681</v>
+        <v>32703</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
@@ -1138,10 +1138,10 @@
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="N7" s="7">
-        <v>99736</v>
+        <v>75093</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>11</v>
@@ -1210,10 +1210,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D9" s="7">
-        <v>55055</v>
+        <v>42390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1225,10 +1225,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I9" s="7">
-        <v>44681</v>
+        <v>32703</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1240,10 +1240,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="N9" s="7">
-        <v>99736</v>
+        <v>75093</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1263,10 +1263,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D10" s="7">
-        <v>42390</v>
+        <v>55055</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
@@ -1278,10 +1278,10 @@
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="I10" s="7">
-        <v>32703</v>
+        <v>44681</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
@@ -1293,10 +1293,10 @@
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="N10" s="7">
-        <v>75093</v>
+        <v>99736</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
@@ -1365,10 +1365,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D12" s="7">
-        <v>42390</v>
+        <v>55055</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -1380,10 +1380,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="I12" s="7">
-        <v>32703</v>
+        <v>44681</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1395,10 +1395,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="N12" s="7">
-        <v>75093</v>
+        <v>99736</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -1581,7 +1581,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA8CE75B-A142-472E-ADDF-51D5A3C2062E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB0A4F9-FA52-4648-AB96-4E2514839EB1}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1854,10 +1854,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="D7" s="7">
-        <v>36927</v>
+        <v>57376</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
@@ -1872,31 +1872,31 @@
         <v>61</v>
       </c>
       <c r="I7" s="7">
-        <v>42352</v>
+        <v>45111</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="N7" s="7">
-        <v>79279</v>
+        <v>102487</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1917,37 +1917,37 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>656</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>656</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1956,10 +1956,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="D9" s="7">
-        <v>36927</v>
+        <v>57376</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1971,10 +1971,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I9" s="7">
-        <v>42352</v>
+        <v>45767</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1986,10 +1986,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="N9" s="7">
-        <v>79279</v>
+        <v>103143</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -2009,16 +2009,16 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="D10" s="7">
-        <v>57376</v>
+        <v>36927</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -2027,31 +2027,31 @@
         <v>61</v>
       </c>
       <c r="I10" s="7">
-        <v>45111</v>
+        <v>42352</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="N10" s="7">
-        <v>102487</v>
+        <v>79279</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2072,34 +2072,34 @@
         <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>656</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>656</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>64</v>
@@ -2111,10 +2111,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="D12" s="7">
-        <v>57376</v>
+        <v>36927</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -2126,10 +2126,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I12" s="7">
-        <v>45767</v>
+        <v>42352</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2141,10 +2141,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="N12" s="7">
-        <v>103143</v>
+        <v>79279</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -2327,7 +2327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E305B77-18B7-4272-A115-B0826B78FD5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED6928E-2328-40F8-85E4-17E7CC9AB093}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2600,10 +2600,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D7" s="7">
-        <v>41297</v>
+        <v>41823</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
@@ -2615,10 +2615,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="I7" s="7">
-        <v>37072</v>
+        <v>44632</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
@@ -2630,10 +2630,10 @@
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="N7" s="7">
-        <v>78369</v>
+        <v>86456</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>11</v>
@@ -2702,10 +2702,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D9" s="7">
-        <v>41297</v>
+        <v>41823</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -2717,10 +2717,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="I9" s="7">
-        <v>37072</v>
+        <v>44632</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -2732,10 +2732,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="N9" s="7">
-        <v>78369</v>
+        <v>86456</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -2755,10 +2755,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D10" s="7">
-        <v>41823</v>
+        <v>41297</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
@@ -2770,10 +2770,10 @@
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="I10" s="7">
-        <v>44632</v>
+        <v>37072</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
@@ -2785,10 +2785,10 @@
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="N10" s="7">
-        <v>86456</v>
+        <v>78369</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
@@ -2857,10 +2857,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D12" s="7">
-        <v>41823</v>
+        <v>41297</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -2872,10 +2872,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="I12" s="7">
-        <v>44632</v>
+        <v>37072</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2887,10 +2887,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="N12" s="7">
-        <v>86456</v>
+        <v>78369</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -3073,7 +3073,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF9B9C73-C476-4FF0-961C-261ABDFF21DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947D7AC9-95D0-463B-963C-F67D3C9796DB}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3346,10 +3346,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="D7" s="7">
-        <v>84680</v>
+        <v>51987</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
@@ -3361,34 +3361,34 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="I7" s="7">
-        <v>73610</v>
+        <v>52417</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M7" s="7">
-        <v>202</v>
+        <v>148</v>
       </c>
       <c r="N7" s="7">
-        <v>158290</v>
+        <v>104404</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3409,37 +3409,37 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>2186</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>2186</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,10 +3448,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="D9" s="7">
-        <v>84680</v>
+        <v>51987</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -3463,10 +3463,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="I9" s="7">
-        <v>73610</v>
+        <v>54603</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -3478,10 +3478,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>202</v>
+        <v>151</v>
       </c>
       <c r="N9" s="7">
-        <v>158290</v>
+        <v>106590</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -3501,49 +3501,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="D10" s="7">
-        <v>51987</v>
+        <v>84680</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="I10" s="7">
-        <v>52417</v>
+        <v>73610</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>148</v>
+        <v>202</v>
       </c>
       <c r="N10" s="7">
-        <v>104404</v>
+        <v>158290</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3564,34 +3564,34 @@
         <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>2186</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>2186</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>122</v>
@@ -3603,10 +3603,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="D12" s="7">
-        <v>51987</v>
+        <v>84680</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -3618,10 +3618,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="I12" s="7">
-        <v>54603</v>
+        <v>73610</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -3633,10 +3633,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="N12" s="7">
-        <v>106590</v>
+        <v>158290</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -3695,7 +3695,7 @@
         <v>127</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>128</v>
@@ -3749,7 +3749,7 @@
         <v>134</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP16A07-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16A07-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{044BCE0B-555C-410E-9D56-C5B4D084199C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{449BB19A-7FF8-45E9-85FF-56670AEA6FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D69C9DA9-7FA7-4EA5-8222-1D16DCD4299C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8CA79772-356B-4876-8EF4-27F985A2F635}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="151">
   <si>
     <t>Menores según si ha consumido pastillas para dormir en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -68,7 +68,25 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
   </si>
   <si>
     <t>No</t>
@@ -77,373 +95,403 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
     <t>97,26%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>10/15</t>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido pastillas para dormir en 2012 (Tasa respuesta: 20,68%)</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido pastillas para dormir en 2015 (Tasa respuesta: 17,45%)</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
   </si>
   <si>
     <t>97,69%</t>
   </si>
   <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido pastillas para dormir en 2012 (Tasa respuesta: 20,68%)</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
   </si>
   <si>
     <t>98,93%</t>
   </si>
   <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido pastillas para dormir en 2015 (Tasa respuesta: 17,45%)</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
     <t>99,01%</t>
   </si>
   <si>
     <t>99,48%</t>
   </si>
   <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
     <t>Menores según si ha consumido pastillas para dormir en 2023 (Tasa respuesta: 24,79%)</t>
   </si>
   <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
     <t>97,38%</t>
   </si>
   <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
   </si>
   <si>
     <t>97,34%</t>
   </si>
   <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
     <t>96,0%</t>
   </si>
   <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
+    <t>99,63%</t>
   </si>
   <si>
     <t>99,33%</t>
   </si>
   <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
   </si>
 </sst>
 </file>
@@ -454,7 +502,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -550,39 +598,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -634,7 +682,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -745,13 +793,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -760,6 +801,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -824,19 +872,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75CB7AD-C79B-4738-965C-7457ABCEF08E}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B3873E-8E37-434D-99E3-23EC4BE6F72A}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -953,10 +1021,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>46474</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -968,34 +1036,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>47921</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>94395</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1004,10 +1072,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>29655</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1019,34 +1087,34 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>29035</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>58690</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1055,49 +1123,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D6" s="7">
-        <v>46474</v>
+        <v>29655</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="I6" s="7">
-        <v>47921</v>
+        <v>29035</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="N6" s="7">
-        <v>94395</v>
+        <v>58690</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1108,49 +1176,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>42390</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H7" s="7">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>32703</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M7" s="7">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>75093</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1159,49 +1227,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>50960</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>43221</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>94181</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1210,49 +1278,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D9" s="7">
-        <v>42390</v>
+        <v>50960</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="I9" s="7">
-        <v>32703</v>
+        <v>43221</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="N9" s="7">
-        <v>75093</v>
+        <v>94181</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1263,49 +1331,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>55055</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H10" s="7">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>44681</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M10" s="7">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>99736</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1314,49 +1382,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>23866</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7">
         <v>33</v>
       </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>22507</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>46373</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1365,102 +1433,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>55055</v>
+        <v>23866</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="I12" s="7">
-        <v>44681</v>
+        <v>22507</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>147</v>
+        <v>69</v>
       </c>
       <c r="N12" s="7">
-        <v>99736</v>
+        <v>46373</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>143919</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="H13" s="7">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>125305</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M13" s="7">
-        <v>405</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>269224</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1469,49 +1537,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>39438</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>30543</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>69981</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1520,55 +1588,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>59</v>
+      </c>
+      <c r="D15" s="7">
+        <v>39438</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>45</v>
+      </c>
+      <c r="I15" s="7">
+        <v>30543</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>104</v>
+      </c>
+      <c r="N15" s="7">
+        <v>69981</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
         <v>215</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D17" s="7">
         <v>143919</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="7">
         <v>190</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I17" s="7">
         <v>125305</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="7">
         <v>405</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N17" s="7">
         <v>269224</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>215</v>
+      </c>
+      <c r="D18" s="7">
+        <v>143919</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
+        <v>190</v>
+      </c>
+      <c r="I18" s="7">
+        <v>125305</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
+        <v>405</v>
+      </c>
+      <c r="N18" s="7">
+        <v>269224</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1581,8 +1810,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB0A4F9-FA52-4648-AB96-4E2514839EB1}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4F558C-A6B3-4DF4-B099-563CF6108A2D}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1598,7 +1827,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1699,49 +1928,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>63663</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="H4" s="7">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>59102</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M4" s="7">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>122766</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1750,49 +1979,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>38426</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>36497</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>74923</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1801,49 +2030,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="D6" s="7">
-        <v>63663</v>
+        <v>38426</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="I6" s="7">
-        <v>59102</v>
+        <v>36497</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>179</v>
+        <v>109</v>
       </c>
       <c r="N6" s="7">
-        <v>122766</v>
+        <v>74923</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1854,49 +2083,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>57376</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>656</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="7">
+        <v>656</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="I7" s="7">
-        <v>45111</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" s="7">
-        <v>140</v>
-      </c>
-      <c r="N7" s="7">
-        <v>102487</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1905,49 +2134,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>66757</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="I8" s="7">
-        <v>656</v>
+        <v>53029</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="N8" s="7">
-        <v>656</v>
+        <v>119786</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1956,49 +2185,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D9" s="7">
-        <v>57376</v>
+        <v>66757</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="I9" s="7">
-        <v>45767</v>
+        <v>53685</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="N9" s="7">
-        <v>103143</v>
+        <v>120442</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2009,49 +2238,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>36927</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="H10" s="7">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>42352</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M10" s="7">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>79279</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2060,49 +2289,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>27915</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>29870</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>57785</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2111,102 +2340,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D12" s="7">
-        <v>36927</v>
+        <v>27915</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="I12" s="7">
-        <v>42352</v>
+        <v>29870</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="N12" s="7">
-        <v>79279</v>
+        <v>57785</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>222</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>157966</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H13" s="7">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>146565</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M13" s="7">
-        <v>433</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>304531</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2215,49 +2444,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>24868</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="7">
+        <v>39</v>
+      </c>
+      <c r="I14" s="7">
+        <v>27169</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>656</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="N14" s="7">
-        <v>656</v>
+        <v>52037</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2266,55 +2495,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>36</v>
+      </c>
+      <c r="D15" s="7">
+        <v>24868</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>39</v>
+      </c>
+      <c r="I15" s="7">
+        <v>27169</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>75</v>
+      </c>
+      <c r="N15" s="7">
+        <v>52037</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>656</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M16" s="7">
+        <v>1</v>
+      </c>
+      <c r="N16" s="7">
+        <v>656</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
         <v>222</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D17" s="7">
         <v>157966</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="7">
+        <v>211</v>
+      </c>
+      <c r="I17" s="7">
+        <v>146565</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="7">
+        <v>433</v>
+      </c>
+      <c r="N17" s="7">
+        <v>304531</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>222</v>
+      </c>
+      <c r="D18" s="7">
+        <v>157966</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>212</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>147221</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>434</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>305187</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2327,8 +2717,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED6928E-2328-40F8-85E4-17E7CC9AB093}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C449FA4F-FCDE-4409-AB68-F121B86099A5}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2344,7 +2734,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2445,49 +2835,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>40156</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="H4" s="7">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>45756</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>85912</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2496,25 +2886,25 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>23976</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>27033</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -2523,22 +2913,22 @@
         <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>51009</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2547,49 +2937,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="D6" s="7">
-        <v>40156</v>
+        <v>23976</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="I6" s="7">
-        <v>45756</v>
+        <v>27033</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="N6" s="7">
-        <v>85912</v>
+        <v>51009</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2600,49 +2990,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>41823</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="H7" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>44632</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M7" s="7">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>86456</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2651,49 +3041,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>43096</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>42239</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>85335</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2702,49 +3092,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D9" s="7">
-        <v>41823</v>
+        <v>43096</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I9" s="7">
-        <v>44632</v>
+        <v>42239</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N9" s="7">
-        <v>86456</v>
+        <v>85335</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2755,49 +3145,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>41297</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="H10" s="7">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>37072</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="M10" s="7">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>78369</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2806,49 +3196,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>33446</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>36124</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>69570</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2857,102 +3247,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D12" s="7">
-        <v>41297</v>
+        <v>33446</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>52</v>
       </c>
       <c r="I12" s="7">
-        <v>37072</v>
+        <v>36124</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="N12" s="7">
-        <v>78369</v>
+        <v>69570</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>123276</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="H13" s="7">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>127461</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="M13" s="7">
-        <v>371</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>250737</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2961,49 +3351,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>22758</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>22065</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>44823</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3012,55 +3402,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>31</v>
+      </c>
+      <c r="D15" s="7">
+        <v>22758</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>31</v>
+      </c>
+      <c r="I15" s="7">
+        <v>22065</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>62</v>
+      </c>
+      <c r="N15" s="7">
+        <v>44823</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
         <v>179</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D17" s="7">
         <v>123276</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="7">
         <v>192</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I17" s="7">
         <v>127461</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="7">
         <v>371</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N17" s="7">
         <v>250737</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>179</v>
+      </c>
+      <c r="D18" s="7">
+        <v>123276</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
+        <v>192</v>
+      </c>
+      <c r="I18" s="7">
+        <v>127461</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
+        <v>371</v>
+      </c>
+      <c r="N18" s="7">
+        <v>250737</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3073,8 +3624,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947D7AC9-95D0-463B-963C-F67D3C9796DB}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A89244-5B6D-4141-A2E8-332B80E19348}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3090,7 +3641,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3191,49 +3742,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>35870</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="H4" s="7">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>26198</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>62068</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,49 +3793,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>20935</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>15942</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>36877</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,49 +3844,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>42</v>
+      </c>
+      <c r="D6" s="7">
+        <v>20935</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
+        <v>30</v>
+      </c>
+      <c r="I6" s="7">
+        <v>15942</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="7">
         <v>72</v>
       </c>
-      <c r="D6" s="7">
-        <v>35870</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7">
-        <v>51</v>
-      </c>
-      <c r="I6" s="7">
-        <v>26198</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M6" s="7">
-        <v>123</v>
-      </c>
       <c r="N6" s="7">
-        <v>62068</v>
+        <v>36877</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,49 +3897,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>51987</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="H7" s="7">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>52417</v>
+        <v>1353</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="M7" s="7">
-        <v>148</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>104404</v>
+        <v>1353</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3397,49 +3948,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>46002</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="I8" s="7">
-        <v>2186</v>
+        <v>43391</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="M8" s="7">
-        <v>3</v>
+        <v>145</v>
       </c>
       <c r="N8" s="7">
-        <v>2186</v>
+        <v>89393</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,49 +3999,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D9" s="7">
-        <v>51987</v>
+        <v>46002</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I9" s="7">
-        <v>54603</v>
+        <v>44744</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="N9" s="7">
-        <v>106590</v>
+        <v>90746</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,49 +4052,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>84680</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="H10" s="7">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>73610</v>
+        <v>833</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="M10" s="7">
-        <v>202</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>158290</v>
+        <v>833</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3552,49 +4103,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>43583</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>36070</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>79653</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,102 +4154,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="D12" s="7">
-        <v>84680</v>
+        <v>43583</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="I12" s="7">
-        <v>73610</v>
+        <v>36903</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>202</v>
+        <v>109</v>
       </c>
       <c r="N12" s="7">
-        <v>158290</v>
+        <v>80486</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>172537</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="H13" s="7">
-        <v>223</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>152226</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>124</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="M13" s="7">
-        <v>473</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>324762</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3707,49 +4258,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>62016</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="I14" s="7">
-        <v>2186</v>
+        <v>56822</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>3</v>
+        <v>148</v>
       </c>
       <c r="N14" s="7">
-        <v>2186</v>
+        <v>118839</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,55 +4309,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>77</v>
+      </c>
+      <c r="D15" s="7">
+        <v>62016</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>71</v>
+      </c>
+      <c r="I15" s="7">
+        <v>56822</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>148</v>
+      </c>
+      <c r="N15" s="7">
+        <v>118839</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2186</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="M16" s="7">
+        <v>3</v>
+      </c>
+      <c r="N16" s="7">
+        <v>2186</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
         <v>250</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D17" s="7">
         <v>172537</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="7">
+        <v>223</v>
+      </c>
+      <c r="I17" s="7">
+        <v>152226</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="M17" s="7">
+        <v>473</v>
+      </c>
+      <c r="N17" s="7">
+        <v>324762</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>250</v>
+      </c>
+      <c r="D18" s="7">
+        <v>172537</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>226</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>154412</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>476</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>326948</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP16A07-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16A07-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{449BB19A-7FF8-45E9-85FF-56670AEA6FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E49BE7A9-9305-41B3-8B1B-815DD1F10EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8CA79772-356B-4876-8EF4-27F985A2F635}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0BD4D93D-1291-483C-BAA4-9414E77EB03A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -224,7 +224,7 @@
     <t>0,54%</t>
   </si>
   <si>
-    <t>2,87%</t>
+    <t>2,97%</t>
   </si>
   <si>
     <t>97,96%</t>
@@ -239,7 +239,7 @@
     <t>99,46%</t>
   </si>
   <si>
-    <t>97,13%</t>
+    <t>97,03%</t>
   </si>
   <si>
     <t>4,78%</t>
@@ -272,54 +272,60 @@
     <t>0,45%</t>
   </si>
   <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido pastillas para dormir en 2016 (Tasa respuesta: 17,45%)</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
     <t>2,9%</t>
   </si>
   <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
   </si>
   <si>
     <t>97,1%</t>
   </si>
   <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido pastillas para dormir en 2015 (Tasa respuesta: 17,45%)</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
     <t>98,51%</t>
   </si>
   <si>
@@ -389,49 +395,43 @@
     <t>3,02%</t>
   </si>
   <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
   </si>
   <si>
     <t>96,98%</t>
   </si>
   <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
   </si>
   <si>
     <t>3,36%</t>
   </si>
   <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
+    <t>12,09%</t>
   </si>
   <si>
     <t>1,03%</t>
   </si>
   <si>
-    <t>6,13%</t>
+    <t>5,1%</t>
   </si>
   <si>
     <t>96,64%</t>
   </si>
   <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
+    <t>87,91%</t>
   </si>
   <si>
     <t>98,97%</t>
   </si>
   <si>
-    <t>93,87%</t>
+    <t>94,9%</t>
   </si>
   <si>
     <t>2,46%</t>
@@ -461,7 +461,7 @@
     <t>0,37%</t>
   </si>
   <si>
-    <t>4,0%</t>
+    <t>4,32%</t>
   </si>
   <si>
     <t>0,67%</t>
@@ -470,7 +470,7 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,89%</t>
+    <t>1,95%</t>
   </si>
   <si>
     <t>99,24%</t>
@@ -479,7 +479,7 @@
     <t>98,58%</t>
   </si>
   <si>
-    <t>96,0%</t>
+    <t>95,68%</t>
   </si>
   <si>
     <t>99,63%</t>
@@ -488,7 +488,7 @@
     <t>99,33%</t>
   </si>
   <si>
-    <t>98,11%</t>
+    <t>98,05%</t>
   </si>
   <si>
     <t>99,83%</t>
@@ -903,7 +903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B3873E-8E37-434D-99E3-23EC4BE6F72A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D582728-24BD-41F4-8E0F-663B2A824E9D}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1810,7 +1810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4F558C-A6B3-4DF4-B099-563CF6108A2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBDF00DB-B0FF-4657-B368-F492512A50E2}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2717,7 +2717,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C449FA4F-FCDE-4409-AB68-F121B86099A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{958A0C7F-C6CB-4DC0-AD02-C755AE569756}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3017,7 +3017,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3032,7 +3032,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3050,7 +3050,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -3065,7 +3065,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -3080,7 +3080,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -3157,7 +3157,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3172,7 +3172,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3187,7 +3187,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3205,7 +3205,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -3220,7 +3220,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -3235,7 +3235,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -3312,7 +3312,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3327,7 +3327,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3342,7 +3342,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3360,7 +3360,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -3375,7 +3375,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -3390,7 +3390,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -3467,7 +3467,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3482,7 +3482,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3497,7 +3497,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3515,7 +3515,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -3530,7 +3530,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -3545,7 +3545,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -3624,7 +3624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A89244-5B6D-4141-A2E8-332B80E19348}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{763CFC2B-96A5-404E-9362-07F1627547E1}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3641,7 +3641,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3769,7 +3769,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3784,7 +3784,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3817,7 +3817,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3832,7 +3832,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3918,13 +3918,13 @@
         <v>1353</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -3933,13 +3933,13 @@
         <v>1353</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,10 +3969,10 @@
         <v>43391</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -3984,10 +3984,10 @@
         <v>89393</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -4064,7 +4064,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -4073,13 +4073,13 @@
         <v>833</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -4088,13 +4088,13 @@
         <v>833</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,7 +4112,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -4124,7 +4124,7 @@
         <v>36070</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>128</v>

--- a/data/trans_orig/IP16A07-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16A07-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E49BE7A9-9305-41B3-8B1B-815DD1F10EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19E8B9F4-B5EF-4FCB-ACA4-808598437C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0BD4D93D-1291-483C-BAA4-9414E77EB03A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E22B70CB-F097-4A23-B052-9275854AB77A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -44,10 +44,10 @@
     <t>Menores según si ha consumido pastillas para dormir en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -80,12 +80,12 @@
     <t>0%</t>
   </si>
   <si>
+    <t>4,07%</t>
+  </si>
+  <si>
     <t>4,25%</t>
   </si>
   <si>
-    <t>4,07%</t>
-  </si>
-  <si>
     <t>2,11%</t>
   </si>
   <si>
@@ -95,96 +95,96 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>95,75%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
     <t>97,89%</t>
   </si>
   <si>
     <t>3-7</t>
   </si>
   <si>
+    <t>2,86%</t>
+  </si>
+  <si>
     <t>2,49%</t>
   </si>
   <si>
-    <t>2,86%</t>
-  </si>
-  <si>
     <t>1,34%</t>
   </si>
   <si>
+    <t>97,14%</t>
+  </si>
+  <si>
     <t>97,51%</t>
   </si>
   <si>
-    <t>97,14%</t>
-  </si>
-  <si>
     <t>98,66%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
+    <t>5,61%</t>
+  </si>
+  <si>
     <t>5,16%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
     <t>2,74%</t>
   </si>
   <si>
+    <t>94,39%</t>
+  </si>
+  <si>
     <t>94,84%</t>
   </si>
   <si>
-    <t>94,39%</t>
-  </si>
-  <si>
     <t>97,26%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
+    <t>4,16%</t>
+  </si>
+  <si>
     <t>3,19%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
     <t>1,83%</t>
   </si>
   <si>
+    <t>95,84%</t>
+  </si>
+  <si>
     <t>96,81%</t>
   </si>
   <si>
-    <t>95,84%</t>
-  </si>
-  <si>
     <t>98,17%</t>
   </si>
   <si>
+    <t>1,0%</t>
+  </si>
+  <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
     <t>0,47%</t>
   </si>
   <si>
+    <t>99,0%</t>
+  </si>
+  <si>
     <t>99,11%</t>
   </si>
   <si>
-    <t>99,0%</t>
-  </si>
-  <si>
     <t>99,53%</t>
   </si>
   <si>
@@ -194,69 +194,69 @@
     <t>Menores según si ha consumido pastillas para dormir en 2012 (Tasa respuesta: 20,68%)</t>
   </si>
   <si>
+    <t>3,42%</t>
+  </si>
+  <si>
     <t>3,48%</t>
   </si>
   <si>
-    <t>3,42%</t>
-  </si>
-  <si>
     <t>1,74%</t>
   </si>
   <si>
+    <t>96,58%</t>
+  </si>
+  <si>
     <t>96,52%</t>
   </si>
   <si>
-    <t>96,58%</t>
-  </si>
-  <si>
     <t>98,26%</t>
   </si>
   <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
     <t>2,04%</t>
   </si>
   <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
     <t>0,54%</t>
   </si>
   <si>
-    <t>2,97%</t>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
   </si>
   <si>
     <t>97,96%</t>
   </si>
   <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
     <t>99,46%</t>
   </si>
   <si>
-    <t>97,03%</t>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
   </si>
   <si>
     <t>4,78%</t>
   </si>
   <si>
-    <t>4,44%</t>
-  </si>
-  <si>
     <t>2,34%</t>
   </si>
   <si>
+    <t>95,56%</t>
+  </si>
+  <si>
     <t>95,22%</t>
   </si>
   <si>
-    <t>95,56%</t>
-  </si>
-  <si>
     <t>97,66%</t>
   </si>
   <si>
@@ -266,34 +266,34 @@
     <t>97,48%</t>
   </si>
   <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
     <t>0,86%</t>
   </si>
   <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
     <t>0,21%</t>
   </si>
   <si>
-    <t>1,09%</t>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
   </si>
   <si>
     <t>99,14%</t>
   </si>
   <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
     <t>99,79%</t>
   </si>
   <si>
-    <t>98,91%</t>
+    <t>98,87%</t>
   </si>
   <si>
     <t>Menores según si ha consumido pastillas para dormir en 2016 (Tasa respuesta: 17,45%)</t>
@@ -311,39 +311,39 @@
     <t>97,69%</t>
   </si>
   <si>
+    <t>2,9%</t>
+  </si>
+  <si>
     <t>2,99%</t>
   </si>
   <si>
-    <t>2,9%</t>
-  </si>
-  <si>
     <t>1,49%</t>
   </si>
   <si>
+    <t>97,1%</t>
+  </si>
+  <si>
     <t>97,01%</t>
   </si>
   <si>
-    <t>97,1%</t>
-  </si>
-  <si>
     <t>98,51%</t>
   </si>
   <si>
+    <t>3,61%</t>
+  </si>
+  <si>
     <t>3,98%</t>
   </si>
   <si>
-    <t>3,61%</t>
-  </si>
-  <si>
     <t>1,92%</t>
   </si>
   <si>
+    <t>96,39%</t>
+  </si>
+  <si>
     <t>96,02%</t>
   </si>
   <si>
-    <t>96,39%</t>
-  </si>
-  <si>
     <t>98,08%</t>
   </si>
   <si>
@@ -359,21 +359,21 @@
     <t>96,96%</t>
   </si>
   <si>
+    <t>0,99%</t>
+  </si>
+  <si>
     <t>1,07%</t>
   </si>
   <si>
-    <t>0,99%</t>
-  </si>
-  <si>
     <t>0,52%</t>
   </si>
   <si>
+    <t>99,01%</t>
+  </si>
+  <si>
     <t>98,93%</t>
   </si>
   <si>
-    <t>99,01%</t>
-  </si>
-  <si>
     <t>99,48%</t>
   </si>
   <si>
@@ -392,103 +392,103 @@
     <t>97,38%</t>
   </si>
   <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
   </si>
   <si>
     <t>3,36%</t>
   </si>
   <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
   </si>
   <si>
     <t>96,64%</t>
   </si>
   <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
   </si>
   <si>
     <t>2,46%</t>
   </si>
   <si>
-    <t>2,66%</t>
-  </si>
-  <si>
     <t>1,29%</t>
   </si>
   <si>
+    <t>97,34%</t>
+  </si>
+  <si>
     <t>97,54%</t>
   </si>
   <si>
-    <t>97,34%</t>
-  </si>
-  <si>
     <t>98,71%</t>
   </si>
   <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
     <t>0,76%</t>
   </si>
   <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
+    <t>0,59%</t>
   </si>
   <si>
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,95%</t>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
   </si>
   <si>
     <t>99,24%</t>
   </si>
   <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
   </si>
   <si>
     <t>99,83%</t>
@@ -903,7 +903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D582728-24BD-41F4-8E0F-663B2A824E9D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3285B28-9873-423C-96EC-08AFF72E7E00}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1072,10 +1072,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D5" s="7">
-        <v>29655</v>
+        <v>29035</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1087,10 +1087,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I5" s="7">
-        <v>29035</v>
+        <v>29655</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -1123,25 +1123,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>46</v>
+      </c>
+      <c r="D6" s="7">
+        <v>29035</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>44</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>29655</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>46</v>
-      </c>
-      <c r="I6" s="7">
-        <v>29035</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D8" s="7">
-        <v>50960</v>
+        <v>43221</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -1242,10 +1242,10 @@
         <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="I8" s="7">
-        <v>43221</v>
+        <v>50960</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
@@ -1278,25 +1278,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>66</v>
+      </c>
+      <c r="D9" s="7">
+        <v>43221</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>76</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>50960</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>66</v>
-      </c>
-      <c r="I9" s="7">
-        <v>43221</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1382,10 +1382,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D11" s="7">
-        <v>23866</v>
+        <v>22507</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
@@ -1397,10 +1397,10 @@
         <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I11" s="7">
-        <v>22507</v>
+        <v>23866</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
@@ -1433,25 +1433,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>33</v>
+      </c>
+      <c r="D12" s="7">
+        <v>22507</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>36</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>23866</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>33</v>
-      </c>
-      <c r="I12" s="7">
-        <v>22507</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1537,10 +1537,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D14" s="7">
-        <v>39438</v>
+        <v>30543</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -1552,10 +1552,10 @@
         <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="I14" s="7">
-        <v>30543</v>
+        <v>39438</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
@@ -1588,25 +1588,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>45</v>
+      </c>
+      <c r="D15" s="7">
+        <v>30543</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>59</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>39438</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>45</v>
-      </c>
-      <c r="I15" s="7">
-        <v>30543</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1692,10 +1692,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="D17" s="7">
-        <v>143919</v>
+        <v>125305</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
@@ -1707,10 +1707,10 @@
         <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="I17" s="7">
-        <v>125305</v>
+        <v>143919</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
@@ -1743,25 +1743,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>190</v>
+      </c>
+      <c r="D18" s="7">
+        <v>125305</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>215</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>143919</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>190</v>
-      </c>
-      <c r="I18" s="7">
-        <v>125305</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -1810,7 +1810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBDF00DB-B0FF-4657-B368-F492512A50E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F5F680E-2F95-45E4-AE63-8C20C3960889}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1979,10 +1979,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D5" s="7">
-        <v>38426</v>
+        <v>36497</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1994,10 +1994,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I5" s="7">
-        <v>36497</v>
+        <v>38426</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -2030,25 +2030,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>55</v>
+      </c>
+      <c r="D6" s="7">
+        <v>36497</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>54</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>38426</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>55</v>
-      </c>
-      <c r="I6" s="7">
-        <v>36497</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2083,31 +2083,31 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>656</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>656</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>59</v>
@@ -2134,34 +2134,34 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>75</v>
+      </c>
+      <c r="D8" s="7">
+        <v>53029</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="7">
         <v>93</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>66757</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="7">
-        <v>75</v>
-      </c>
-      <c r="I8" s="7">
-        <v>53029</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>64</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
         <v>168</v>
@@ -2185,25 +2185,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>76</v>
+      </c>
+      <c r="D9" s="7">
+        <v>53685</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>93</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>66757</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>76</v>
-      </c>
-      <c r="I9" s="7">
-        <v>53685</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -2289,10 +2289,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D11" s="7">
-        <v>27915</v>
+        <v>29870</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
@@ -2304,10 +2304,10 @@
         <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I11" s="7">
-        <v>29870</v>
+        <v>27915</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
@@ -2340,25 +2340,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>42</v>
+      </c>
+      <c r="D12" s="7">
+        <v>29870</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>39</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>27915</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>42</v>
-      </c>
-      <c r="I12" s="7">
-        <v>29870</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2405,7 +2405,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2444,31 +2444,31 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>39</v>
+      </c>
+      <c r="D14" s="7">
+        <v>27169</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="7">
         <v>36</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>24868</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="7">
-        <v>39</v>
-      </c>
-      <c r="I14" s="7">
-        <v>27169</v>
-      </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -2495,25 +2495,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>39</v>
+      </c>
+      <c r="D15" s="7">
+        <v>27169</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>36</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>24868</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>39</v>
-      </c>
-      <c r="I15" s="7">
-        <v>27169</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2548,31 +2548,31 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>656</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>656</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>77</v>
@@ -2599,34 +2599,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>211</v>
+      </c>
+      <c r="D17" s="7">
+        <v>146565</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="7">
         <v>222</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>157966</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="7">
-        <v>211</v>
-      </c>
-      <c r="I17" s="7">
-        <v>146565</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>82</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M17" s="7">
         <v>433</v>
@@ -2650,25 +2650,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>212</v>
+      </c>
+      <c r="D18" s="7">
+        <v>147221</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>222</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>157966</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>212</v>
-      </c>
-      <c r="I18" s="7">
-        <v>147221</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -2717,7 +2717,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{958A0C7F-C6CB-4DC0-AD02-C755AE569756}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0359AF01-1B6C-4882-9AFA-A684ACAF8089}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2847,22 +2847,22 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2886,31 +2886,31 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
+        <v>44</v>
+      </c>
+      <c r="D5" s="7">
+        <v>27033</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
         <v>38</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>23976</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="7">
-        <v>44</v>
-      </c>
-      <c r="I5" s="7">
-        <v>27033</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2937,25 +2937,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>44</v>
+      </c>
+      <c r="D6" s="7">
+        <v>27033</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>38</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>23976</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>44</v>
-      </c>
-      <c r="I6" s="7">
-        <v>27033</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3041,10 +3041,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D8" s="7">
-        <v>43096</v>
+        <v>42239</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -3056,10 +3056,10 @@
         <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I8" s="7">
-        <v>42239</v>
+        <v>43096</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
@@ -3092,25 +3092,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>65</v>
+      </c>
+      <c r="D9" s="7">
+        <v>42239</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>63</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>43096</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>65</v>
-      </c>
-      <c r="I9" s="7">
-        <v>42239</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3196,10 +3196,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D11" s="7">
-        <v>33446</v>
+        <v>36124</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
@@ -3211,10 +3211,10 @@
         <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I11" s="7">
-        <v>36124</v>
+        <v>33446</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
@@ -3247,25 +3247,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>52</v>
+      </c>
+      <c r="D12" s="7">
+        <v>36124</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>47</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>33446</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>52</v>
-      </c>
-      <c r="I12" s="7">
-        <v>36124</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3354,7 +3354,7 @@
         <v>31</v>
       </c>
       <c r="D14" s="7">
-        <v>22758</v>
+        <v>22065</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -3369,7 +3369,7 @@
         <v>31</v>
       </c>
       <c r="I14" s="7">
-        <v>22065</v>
+        <v>22758</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
@@ -3405,7 +3405,7 @@
         <v>31</v>
       </c>
       <c r="D15" s="7">
-        <v>22758</v>
+        <v>22065</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -3420,7 +3420,7 @@
         <v>31</v>
       </c>
       <c r="I15" s="7">
-        <v>22065</v>
+        <v>22758</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3506,10 +3506,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="D17" s="7">
-        <v>123276</v>
+        <v>127461</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
@@ -3521,10 +3521,10 @@
         <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="I17" s="7">
-        <v>127461</v>
+        <v>123276</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
@@ -3557,25 +3557,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>192</v>
+      </c>
+      <c r="D18" s="7">
+        <v>127461</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>179</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>123276</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>192</v>
-      </c>
-      <c r="I18" s="7">
-        <v>127461</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -3624,7 +3624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{763CFC2B-96A5-404E-9362-07F1627547E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{250E72EA-C3A0-44D8-8101-F7ACAD4B8AE0}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3754,7 +3754,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3769,7 +3769,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3793,31 +3793,31 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
+        <v>30</v>
+      </c>
+      <c r="D5" s="7">
+        <v>15983</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
         <v>42</v>
       </c>
-      <c r="D5" s="7">
-        <v>20935</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="7">
-        <v>30</v>
-      </c>
       <c r="I5" s="7">
-        <v>15942</v>
+        <v>22357</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3826,7 +3826,7 @@
         <v>72</v>
       </c>
       <c r="N5" s="7">
-        <v>36877</v>
+        <v>38340</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
@@ -3844,25 +3844,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>30</v>
+      </c>
+      <c r="D6" s="7">
+        <v>15983</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>42</v>
       </c>
-      <c r="D6" s="7">
-        <v>20935</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>30</v>
-      </c>
       <c r="I6" s="7">
-        <v>15942</v>
+        <v>22357</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3877,7 +3877,7 @@
         <v>72</v>
       </c>
       <c r="N6" s="7">
-        <v>36877</v>
+        <v>38340</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -3897,49 +3897,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>1298</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="H7" s="7">
-        <v>2</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1353</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>1353</v>
+        <v>1298</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,46 +3948,46 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>70</v>
+      </c>
+      <c r="D8" s="7">
+        <v>45325</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="7">
         <v>75</v>
       </c>
-      <c r="D8" s="7">
-        <v>46002</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="I8" s="7">
+        <v>48984</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="7">
-        <v>70</v>
-      </c>
-      <c r="I8" s="7">
-        <v>43391</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>121</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
         <v>145</v>
       </c>
       <c r="N8" s="7">
-        <v>89393</v>
+        <v>94309</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -3999,25 +3999,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>72</v>
+      </c>
+      <c r="D9" s="7">
+        <v>46623</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>75</v>
       </c>
-      <c r="D9" s="7">
-        <v>46002</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>72</v>
-      </c>
       <c r="I9" s="7">
-        <v>44744</v>
+        <v>48984</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -4032,7 +4032,7 @@
         <v>147</v>
       </c>
       <c r="N9" s="7">
-        <v>90746</v>
+        <v>95607</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -4052,49 +4052,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>819</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>833</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>833</v>
+        <v>819</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,46 +4103,46 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>52</v>
+      </c>
+      <c r="D11" s="7">
+        <v>36332</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="7">
         <v>56</v>
       </c>
-      <c r="D11" s="7">
-        <v>43583</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="7">
-        <v>52</v>
-      </c>
       <c r="I11" s="7">
-        <v>36070</v>
+        <v>46169</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
         <v>108</v>
       </c>
       <c r="N11" s="7">
-        <v>79653</v>
+        <v>82501</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -4154,25 +4154,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>53</v>
+      </c>
+      <c r="D12" s="7">
+        <v>37151</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>56</v>
       </c>
-      <c r="D12" s="7">
-        <v>43583</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>53</v>
-      </c>
       <c r="I12" s="7">
-        <v>36903</v>
+        <v>46169</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -4187,7 +4187,7 @@
         <v>109</v>
       </c>
       <c r="N12" s="7">
-        <v>80486</v>
+        <v>83320</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -4219,7 +4219,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4234,7 +4234,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4249,7 +4249,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,31 +4258,31 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>71</v>
+      </c>
+      <c r="D14" s="7">
+        <v>77957</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="7">
         <v>77</v>
       </c>
-      <c r="D14" s="7">
-        <v>62016</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="7">
-        <v>71</v>
-      </c>
       <c r="I14" s="7">
-        <v>56822</v>
+        <v>64692</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -4291,13 +4291,13 @@
         <v>148</v>
       </c>
       <c r="N14" s="7">
-        <v>118839</v>
+        <v>142649</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -4309,25 +4309,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>71</v>
+      </c>
+      <c r="D15" s="7">
+        <v>77957</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>77</v>
       </c>
-      <c r="D15" s="7">
-        <v>62016</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>71</v>
-      </c>
       <c r="I15" s="7">
-        <v>56822</v>
+        <v>64692</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -4342,7 +4342,7 @@
         <v>148</v>
       </c>
       <c r="N15" s="7">
-        <v>118839</v>
+        <v>142649</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -4362,49 +4362,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>2118</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>137</v>
+        <v>52</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>2186</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>138</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>2186</v>
+        <v>2118</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4413,40 +4413,40 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>223</v>
+      </c>
+      <c r="D17" s="7">
+        <v>175597</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H17" s="7">
         <v>250</v>
       </c>
-      <c r="D17" s="7">
-        <v>172537</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="7">
-        <v>223</v>
-      </c>
       <c r="I17" s="7">
-        <v>152226</v>
+        <v>182201</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>147</v>
+        <v>19</v>
       </c>
       <c r="M17" s="7">
         <v>473</v>
       </c>
       <c r="N17" s="7">
-        <v>324762</v>
+        <v>357798</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>148</v>
@@ -4464,25 +4464,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>226</v>
+      </c>
+      <c r="D18" s="7">
+        <v>177715</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>250</v>
       </c>
-      <c r="D18" s="7">
-        <v>172537</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>226</v>
-      </c>
       <c r="I18" s="7">
-        <v>154412</v>
+        <v>182201</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -4497,7 +4497,7 @@
         <v>476</v>
       </c>
       <c r="N18" s="7">
-        <v>326948</v>
+        <v>359916</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
